--- a/data/Subset1_WithDialogActs/Jeffs group 1_first grade.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Jeffs group 1_first grade.xlsx_with_dialog_acts.xlsx
@@ -589,12 +589,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -897,12 +897,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -935,12 +935,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1205,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1319,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1589,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1779,12 +1779,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1817,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2429,12 +2429,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3057,12 +3057,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3551,12 +3551,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3707,12 +3707,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
